--- a/teaching/AmericanAirlinesFinancials.xlsx
+++ b/teaching/AmericanAirlinesFinancials.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA78BE-6C4E-1945-8D51-C837EA21E3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33F10B-15DB-AF4E-8A25-FF81B762B5F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="2920" windowWidth="27560" windowHeight="20100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="1880" windowWidth="27560" windowHeight="20100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Stats" sheetId="1" r:id="rId1"/>
@@ -3050,6 +3050,13 @@
     <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3060,13 +3067,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="ChartingText" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -19231,7 +19231,9 @@
   </sheetPr>
   <dimension ref="A5:IU90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11"/>
   <cols>
@@ -20796,25 +20798,25 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="74">
         <v>20561</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="74">
         <v>24344</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="74">
         <v>25065</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="74">
         <v>34029</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="74">
         <v>33444</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G75" s="74">
         <v>41205</v>
       </c>
     </row>
@@ -21116,7 +21118,7 @@
   </sheetPr>
   <dimension ref="A5:IU71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
@@ -21605,25 +21607,25 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="B21" s="81">
+      <c r="B21" s="77">
         <v>1609</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="77">
         <v>1818</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="77">
         <v>2017</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="77">
         <v>2159</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="77">
         <v>2318</v>
       </c>
-      <c r="G21" s="81">
+      <c r="G21" s="77">
         <v>2407</v>
       </c>
     </row>
@@ -21704,7 +21706,7 @@
       <c r="G25" s="19">
         <v>1691</v>
       </c>
-      <c r="J25" s="82"/>
+      <c r="J25" s="78"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="73" t="s">
@@ -26113,18 +26115,18 @@
       <c r="A14" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="79" t="s">
         <v>360</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79" t="s">
+      <c r="E14" s="81"/>
+      <c r="F14" s="82" t="s">
         <v>362</v>
       </c>
-      <c r="G14" s="78"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:255" ht="12">
       <c r="A15" s="8" t="s">
@@ -26520,18 +26522,18 @@
       <c r="A25" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="79" t="s">
         <v>360</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="76" t="s">
+      <c r="C25" s="80"/>
+      <c r="D25" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79" t="s">
+      <c r="E25" s="81"/>
+      <c r="F25" s="82" t="s">
         <v>362</v>
       </c>
-      <c r="G25" s="78"/>
+      <c r="G25" s="81"/>
     </row>
     <row r="26" spans="1:255" ht="12">
       <c r="A26" s="8" t="s">

--- a/teaching/AmericanAirlinesFinancials.xlsx
+++ b/teaching/AmericanAirlinesFinancials.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DE1032-4068-8543-8CC5-AFE13BA5B109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD02395-6096-3948-BDC2-CC96762ABEC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="5940" windowWidth="27560" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="22680" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Stats" sheetId="1" r:id="rId1"/>
@@ -19253,8 +19253,8 @@
   </sheetPr>
   <dimension ref="A5:IU90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:G25"/>
+    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -21140,8 +21140,8 @@
   </sheetPr>
   <dimension ref="A5:IU71"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
